--- a/template/boxu-日常模版.xlsx
+++ b/template/boxu-日常模版.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="23620" windowHeight="13820"/>
   </bookViews>
   <sheets>
     <sheet name="旅行check-list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
   <si>
     <t>□</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>衣物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,53 +57,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>化妆品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>充电宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>□ ■</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所带物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX证</t>
+  </si>
+  <si>
+    <t>外套x1</t>
+  </si>
+  <si>
+    <t>羽绒服x1</t>
+  </si>
+  <si>
+    <t>内衣x2</t>
+  </si>
+  <si>
+    <t>袜子x4</t>
+  </si>
+  <si>
+    <t>洗漱包组合</t>
+  </si>
+  <si>
+    <t>化妆随身品</t>
+  </si>
+  <si>
+    <t>眼镜布</t>
+  </si>
+  <si>
+    <t>隐身眼镜组合</t>
+  </si>
+  <si>
+    <t>水杯</t>
+  </si>
+  <si>
+    <t>电脑</t>
+  </si>
+  <si>
+    <t>劲枕</t>
   </si>
   <si>
     <t>护肤品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充电宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耳机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>□ ■</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所带物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸妆水</t>
+  </si>
+  <si>
+    <t>剃须刀</t>
+  </si>
+  <si>
+    <t>皮筋</t>
+  </si>
+  <si>
+    <t>安卓线x1</t>
+  </si>
+  <si>
+    <t>苹果线x2</t>
+  </si>
+  <si>
+    <t>耳机x1</t>
+  </si>
+  <si>
+    <t>ipad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -117,10 +166,47 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Libian SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,10 +226,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -153,9 +257,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="19">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -213,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,7 +375,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,32 +584,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:6" ht="15">
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -494,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>3</v>
@@ -506,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -517,8 +645,11 @@
       <c r="D4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>5</v>
@@ -530,10 +661,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:6" ht="17">
       <c r="A6" s="3"/>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
@@ -541,11 +672,8 @@
       <c r="D6" t="s">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3"/>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -554,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:6">
       <c r="A8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>1</v>
@@ -563,9 +691,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
@@ -574,8 +705,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:6">
       <c r="A10" s="3"/>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
@@ -583,8 +717,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:6">
       <c r="A11" s="3"/>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
@@ -592,8 +729,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:6">
       <c r="A12" s="3"/>
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
@@ -601,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:6">
       <c r="A13" s="3"/>
       <c r="C13" s="1" t="s">
         <v>1</v>
@@ -610,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:6">
       <c r="A14" s="3"/>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -619,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:6">
       <c r="A15" s="3"/>
       <c r="C15" s="1" t="s">
         <v>1</v>
@@ -628,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:6">
       <c r="A16" s="3"/>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -657,19 +797,22 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4"/>
-      <c r="C19" s="1" t="s">
-        <v>1</v>
+      <c r="B19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
+      <c r="A20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
@@ -679,7 +822,10 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
@@ -689,6 +835,9 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3"/>
+      <c r="B22" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
@@ -698,6 +847,9 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3"/>
+      <c r="B23" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
@@ -706,11 +858,9 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
+      <c r="A24" s="3"/>
+      <c r="B24" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
@@ -721,8 +871,8 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3"/>
-      <c r="B25" t="s">
-        <v>13</v>
+      <c r="B25" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>1</v>
@@ -733,6 +883,9 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3"/>
+      <c r="B26" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
@@ -742,6 +895,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
@@ -751,6 +905,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
@@ -760,6 +915,9 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
+      <c r="B29" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
@@ -768,7 +926,12 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>1</v>
       </c>
@@ -777,6 +940,10 @@
       </c>
     </row>
     <row r="31" spans="1:4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
@@ -785,6 +952,10 @@
       </c>
     </row>
     <row r="32" spans="1:4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>1</v>
       </c>
@@ -792,7 +963,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:4">
+    <row r="33" spans="1:4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>1</v>
       </c>
@@ -800,7 +975,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:4">
+    <row r="34" spans="1:4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
@@ -808,15 +987,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="1" t="s">
-        <v>1</v>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
+    <row r="36" spans="1:4">
+      <c r="A36" s="3"/>
       <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
@@ -824,7 +1008,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="1:4">
+      <c r="A37" s="3"/>
       <c r="C37" s="1" t="s">
         <v>1</v>
       </c>
@@ -832,7 +1017,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:4">
+    <row r="38" spans="1:4">
+      <c r="A38" s="3"/>
       <c r="C38" s="1" t="s">
         <v>1</v>
       </c>
@@ -840,7 +1026,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:4">
+    <row r="39" spans="1:4">
+      <c r="A39" s="3"/>
       <c r="C39" s="1" t="s">
         <v>1</v>
       </c>
@@ -848,79 +1035,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:4">
-      <c r="C40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4">
-      <c r="C41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4">
-      <c r="C42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4">
-      <c r="C43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4">
-      <c r="C44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="C45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4">
-      <c r="C46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4">
-      <c r="C47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>0</v>
-      </c>
+    <row r="40" spans="1:4">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A30:A39"/>
     <mergeCell ref="A9:A19"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A20:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>